--- a/backend/Éléonore.xlsx
+++ b/backend/Éléonore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerald\Desktop\Site Eleonore\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32315766-51F6-4BED-9511-6CA0EE6C39B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9078B2DD-043F-40D9-8D80-3FEBF8F06BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{365E2A83-205E-4CD6-9F9F-33DAB63E690C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,9 @@
   <si>
     <t xml:space="preserve">25 gm </t>
   </si>
+  <si>
+    <t>Solides :Vegetable purée Hero</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,8 +477,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -560,8 +569,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,8 +597,9 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,25 +695,35 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -706,14 +744,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent3" xfId="8" builtinId="38"/>
     <cellStyle name="40% - Accent2" xfId="6" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="7" builtinId="39"/>
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
@@ -725,6 +768,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC1F0C8"/>
+      <color rgb="FF83E28E"/>
+      <color rgb="FFF7C7AC"/>
+      <color rgb="FFE49EDD"/>
+      <color rgb="FFC0E6F5"/>
+      <color rgb="FFC6EFCE"/>
+      <color rgb="FFFFEB9C"/>
+      <color rgb="FFFFC7CE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -734,2391 +789,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Poids et Taille'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Poids (kg)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Poids et Taille'!$B$3:$B$58</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>45791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45794</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45796</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45803</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45808</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45811</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45814</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45816</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45818</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45820</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45823</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45827</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45829</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45831</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45835</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45840</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45842</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45844</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45851</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45852</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45854</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45859</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45861</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45866</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45871</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45874</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45880</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45885</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45894</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45906</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45910</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45914</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45919</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45925</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45940</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45948</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45955</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45957</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45964</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45972</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45978</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45983</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>46002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>46010</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>46027</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>46035</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Poids et Taille'!$C$3:$C$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.65</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.85</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.1500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.3499999999999996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.75</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.55</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.05</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.35</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.45</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.75</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.1</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F754-4F43-AF75-E5FBAC4896F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1216184895"/>
-        <c:axId val="1216185375"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1216184895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1216185375"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1216185375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1216184895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Poids et Taille'!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Taille (cm)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Poids et Taille'!$B$3:$B$56</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>45791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45794</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45795</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45796</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45802</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45803</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45808</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45811</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45814</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45816</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45818</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45820</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45823</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45827</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45829</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45831</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45835</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45840</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45842</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45844</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45851</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45852</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45854</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45859</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45861</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45866</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45871</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45874</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45880</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45885</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45887</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45894</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45901</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45906</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45910</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45914</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45919</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45925</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45940</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45948</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45955</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45957</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45964</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45972</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>45978</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45983</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45994</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>46002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>46010</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Poids et Taille'!$D$3:$D$56</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>67.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E10-48FC-9E08-CD7F617E054F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1216184895"/>
-        <c:axId val="1216185375"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1216184895"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1216185375"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="1216185375"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="70"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1216184895"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6196335A-6269-CB8C-F172-DE77CDD9D527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CA1162-9E56-45D5-A11D-F66F588523A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3441,10 +1111,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A2:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,14 +1123,6 @@
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="37" t="s">
@@ -4229,11 +1891,20 @@
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
     </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="42">
+        <v>46041</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43">
+        <v>46.5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="34" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4242,10 +1913,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U526"/>
+  <dimension ref="A1:U547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="N179" sqref="N179:N182"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="M374" sqref="M374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,34 +1989,34 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="73">
+      <c r="B3" s="74">
         <v>45867</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="73">
+      <c r="C3" s="75"/>
+      <c r="D3" s="74">
         <v>45868</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="73">
+      <c r="E3" s="75"/>
+      <c r="F3" s="74">
         <v>45869</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="73">
+      <c r="G3" s="75"/>
+      <c r="H3" s="74">
         <v>45870</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73">
+      <c r="I3" s="75"/>
+      <c r="J3" s="74">
         <v>45871</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73">
+      <c r="K3" s="75"/>
+      <c r="L3" s="74">
         <v>45872</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="73">
+      <c r="M3" s="75"/>
+      <c r="N3" s="74">
         <v>45873</v>
       </c>
-      <c r="O3" s="74"/>
+      <c r="O3" s="75"/>
       <c r="P3" s="66"/>
       <c r="Q3" s="64"/>
       <c r="R3" s="64"/>
@@ -4597,10 +2268,10 @@
         <v>0.4375</v>
       </c>
       <c r="P8" s="66"/>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="83"/>
+      <c r="R8" s="87"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
@@ -4649,10 +2320,10 @@
         <v>0.65625</v>
       </c>
       <c r="P9" s="66"/>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R9" s="81"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
@@ -4697,10 +2368,10 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="P10" s="66"/>
-      <c r="Q10" s="82" t="s">
+      <c r="Q10" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R10" s="82"/>
+      <c r="R10" s="86"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
@@ -4745,12 +2416,12 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="P11" s="66"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -5124,34 +2795,34 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="73">
+      <c r="B24" s="74">
         <v>45874</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="73">
+      <c r="C24" s="75"/>
+      <c r="D24" s="74">
         <v>45875</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="73">
+      <c r="E24" s="75"/>
+      <c r="F24" s="74">
         <v>45876</v>
       </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="73">
+      <c r="G24" s="75"/>
+      <c r="H24" s="74">
         <v>45877</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="73">
+      <c r="I24" s="75"/>
+      <c r="J24" s="74">
         <v>45878</v>
       </c>
-      <c r="K24" s="74"/>
-      <c r="L24" s="73">
+      <c r="K24" s="75"/>
+      <c r="L24" s="74">
         <v>45879</v>
       </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="73">
+      <c r="M24" s="75"/>
+      <c r="N24" s="74">
         <v>45880</v>
       </c>
-      <c r="O24" s="74"/>
+      <c r="O24" s="75"/>
       <c r="P24" s="66"/>
       <c r="Q24" s="64"/>
       <c r="R24" s="64"/>
@@ -5403,10 +3074,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="P29" s="66"/>
-      <c r="Q29" s="83" t="s">
+      <c r="Q29" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="R29" s="83"/>
+      <c r="R29" s="87"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
@@ -5455,10 +3126,10 @@
         <v>0.53125</v>
       </c>
       <c r="P30" s="66"/>
-      <c r="Q30" s="81" t="s">
+      <c r="Q30" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="81"/>
+      <c r="R30" s="85"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
@@ -5507,10 +3178,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="P31" s="66"/>
-      <c r="Q31" s="82" t="s">
+      <c r="Q31" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R31" s="82"/>
+      <c r="R31" s="86"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
     </row>
@@ -5557,12 +3228,12 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P32" s="66"/>
-      <c r="Q32" s="79" t="s">
+      <c r="Q32" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="83"/>
+      <c r="T32" s="83"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -5976,34 +3647,34 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="73">
+      <c r="B45" s="74">
         <v>45881</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="73">
+      <c r="C45" s="75"/>
+      <c r="D45" s="74">
         <v>45882</v>
       </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="73">
+      <c r="E45" s="75"/>
+      <c r="F45" s="74">
         <v>45883</v>
       </c>
-      <c r="G45" s="74"/>
-      <c r="H45" s="73">
+      <c r="G45" s="75"/>
+      <c r="H45" s="74">
         <v>45884</v>
       </c>
-      <c r="I45" s="74"/>
-      <c r="J45" s="73">
+      <c r="I45" s="75"/>
+      <c r="J45" s="74">
         <v>45885</v>
       </c>
-      <c r="K45" s="74"/>
-      <c r="L45" s="73">
+      <c r="K45" s="75"/>
+      <c r="L45" s="74">
         <v>45886</v>
       </c>
-      <c r="M45" s="74"/>
-      <c r="N45" s="73">
+      <c r="M45" s="75"/>
+      <c r="N45" s="74">
         <v>45887</v>
       </c>
-      <c r="O45" s="74"/>
+      <c r="O45" s="75"/>
       <c r="P45" s="66"/>
       <c r="Q45" s="64"/>
       <c r="R45" s="64"/>
@@ -6205,10 +3876,10 @@
         <v>0.375</v>
       </c>
       <c r="P49" s="66"/>
-      <c r="Q49" s="80" t="s">
+      <c r="Q49" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R49" s="80"/>
+      <c r="R49" s="84"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
     </row>
@@ -6257,10 +3928,10 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="P50" s="66"/>
-      <c r="Q50" s="83" t="s">
+      <c r="Q50" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="R50" s="83"/>
+      <c r="R50" s="87"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
     </row>
@@ -6309,10 +3980,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P51" s="66"/>
-      <c r="Q51" s="81" t="s">
+      <c r="Q51" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R51" s="81"/>
+      <c r="R51" s="85"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
     </row>
@@ -6357,10 +4028,10 @@
         <v>0.71875</v>
       </c>
       <c r="P52" s="66"/>
-      <c r="Q52" s="82" t="s">
+      <c r="Q52" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R52" s="82"/>
+      <c r="R52" s="86"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
     </row>
@@ -6405,12 +4076,12 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="P53" s="66"/>
-      <c r="Q53" s="79" t="s">
+      <c r="Q53" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R53" s="79"/>
-      <c r="S53" s="79"/>
-      <c r="T53" s="79"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="83"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
@@ -6821,34 +4492,34 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="73">
+      <c r="B66" s="74">
         <v>45888</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="73">
+      <c r="C66" s="75"/>
+      <c r="D66" s="74">
         <v>45889</v>
       </c>
-      <c r="E66" s="74"/>
-      <c r="F66" s="73">
+      <c r="E66" s="75"/>
+      <c r="F66" s="74">
         <v>45890</v>
       </c>
-      <c r="G66" s="74"/>
-      <c r="H66" s="73">
+      <c r="G66" s="75"/>
+      <c r="H66" s="74">
         <v>45891</v>
       </c>
-      <c r="I66" s="74"/>
-      <c r="J66" s="73">
+      <c r="I66" s="75"/>
+      <c r="J66" s="74">
         <v>45892</v>
       </c>
-      <c r="K66" s="74"/>
-      <c r="L66" s="73">
+      <c r="K66" s="75"/>
+      <c r="L66" s="74">
         <v>45893</v>
       </c>
-      <c r="M66" s="74"/>
-      <c r="N66" s="73">
+      <c r="M66" s="75"/>
+      <c r="N66" s="74">
         <v>45894</v>
       </c>
-      <c r="O66" s="74"/>
+      <c r="O66" s="75"/>
       <c r="P66" s="66"/>
       <c r="Q66" s="64"/>
       <c r="R66" s="64"/>
@@ -7105,10 +4776,10 @@
         <v>0.4375</v>
       </c>
       <c r="P71" s="66"/>
-      <c r="Q71" s="80" t="s">
+      <c r="Q71" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R71" s="80"/>
+      <c r="R71" s="84"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
@@ -7158,10 +4829,10 @@
         <v>0.5625</v>
       </c>
       <c r="P72" s="66"/>
-      <c r="Q72" s="81" t="s">
+      <c r="Q72" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R72" s="81"/>
+      <c r="R72" s="85"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
@@ -7211,10 +4882,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P73" s="66"/>
-      <c r="Q73" s="82" t="s">
+      <c r="Q73" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R73" s="82"/>
+      <c r="R73" s="86"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
@@ -7264,12 +4935,12 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="P74" s="66"/>
-      <c r="Q74" s="79" t="s">
+      <c r="Q74" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R74" s="79"/>
-      <c r="S74" s="79"/>
-      <c r="T74" s="79"/>
+      <c r="R74" s="83"/>
+      <c r="S74" s="83"/>
+      <c r="T74" s="83"/>
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -7700,34 +5371,34 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="73">
+      <c r="B87" s="74">
         <v>45895</v>
       </c>
-      <c r="C87" s="74"/>
-      <c r="D87" s="73">
+      <c r="C87" s="75"/>
+      <c r="D87" s="74">
         <v>45896</v>
       </c>
-      <c r="E87" s="74"/>
-      <c r="F87" s="73">
+      <c r="E87" s="75"/>
+      <c r="F87" s="74">
         <v>45897</v>
       </c>
-      <c r="G87" s="74"/>
-      <c r="H87" s="73">
+      <c r="G87" s="75"/>
+      <c r="H87" s="74">
         <v>45898</v>
       </c>
-      <c r="I87" s="74"/>
-      <c r="J87" s="73">
+      <c r="I87" s="75"/>
+      <c r="J87" s="74">
         <v>45899</v>
       </c>
-      <c r="K87" s="74"/>
-      <c r="L87" s="73">
+      <c r="K87" s="75"/>
+      <c r="L87" s="74">
         <v>45900</v>
       </c>
-      <c r="M87" s="74"/>
-      <c r="N87" s="73">
+      <c r="M87" s="75"/>
+      <c r="N87" s="74">
         <v>45901</v>
       </c>
-      <c r="O87" s="74"/>
+      <c r="O87" s="75"/>
       <c r="P87" s="66"/>
       <c r="Q87" s="64"/>
       <c r="R87" s="64"/>
@@ -7984,10 +5655,10 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="P92" s="66"/>
-      <c r="Q92" s="80" t="s">
+      <c r="Q92" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R92" s="80"/>
+      <c r="R92" s="84"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
@@ -8037,10 +5708,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="P93" s="66"/>
-      <c r="Q93" s="81" t="s">
+      <c r="Q93" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R93" s="81"/>
+      <c r="R93" s="85"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
@@ -8082,10 +5753,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="P94" s="66"/>
-      <c r="Q94" s="82" t="s">
+      <c r="Q94" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R94" s="82"/>
+      <c r="R94" s="86"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -8123,12 +5794,12 @@
       <c r="N95" s="11"/>
       <c r="O95" s="28"/>
       <c r="P95" s="66"/>
-      <c r="Q95" s="79" t="s">
+      <c r="Q95" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R95" s="79"/>
-      <c r="S95" s="79"/>
-      <c r="T95" s="79"/>
+      <c r="R95" s="83"/>
+      <c r="S95" s="83"/>
+      <c r="T95" s="83"/>
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
@@ -8555,34 +6226,34 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="73">
+      <c r="B108" s="74">
         <v>45902</v>
       </c>
-      <c r="C108" s="74"/>
-      <c r="D108" s="73">
+      <c r="C108" s="75"/>
+      <c r="D108" s="74">
         <v>45903</v>
       </c>
-      <c r="E108" s="74"/>
-      <c r="F108" s="73">
+      <c r="E108" s="75"/>
+      <c r="F108" s="74">
         <v>45904</v>
       </c>
-      <c r="G108" s="74"/>
-      <c r="H108" s="73">
+      <c r="G108" s="75"/>
+      <c r="H108" s="74">
         <v>45905</v>
       </c>
-      <c r="I108" s="74"/>
-      <c r="J108" s="73">
+      <c r="I108" s="75"/>
+      <c r="J108" s="74">
         <v>45906</v>
       </c>
-      <c r="K108" s="74"/>
-      <c r="L108" s="73">
+      <c r="K108" s="75"/>
+      <c r="L108" s="74">
         <v>45907</v>
       </c>
-      <c r="M108" s="74"/>
-      <c r="N108" s="73">
+      <c r="M108" s="75"/>
+      <c r="N108" s="74">
         <v>45908</v>
       </c>
-      <c r="O108" s="74"/>
+      <c r="O108" s="75"/>
       <c r="P108" s="66"/>
       <c r="Q108" s="64"/>
       <c r="R108" s="64"/>
@@ -8839,10 +6510,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P113" s="66"/>
-      <c r="Q113" s="80" t="s">
+      <c r="Q113" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R113" s="80"/>
+      <c r="R113" s="84"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -8892,10 +6563,10 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="P114" s="66"/>
-      <c r="Q114" s="81" t="s">
+      <c r="Q114" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R114" s="81"/>
+      <c r="R114" s="85"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
@@ -8945,10 +6616,10 @@
         <v>0.875</v>
       </c>
       <c r="P115" s="66"/>
-      <c r="Q115" s="82" t="s">
+      <c r="Q115" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R115" s="82"/>
+      <c r="R115" s="86"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
@@ -8990,12 +6661,12 @@
       <c r="N116" s="40"/>
       <c r="O116" s="28"/>
       <c r="P116" s="66"/>
-      <c r="Q116" s="79" t="s">
+      <c r="Q116" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R116" s="79"/>
-      <c r="S116" s="79"/>
-      <c r="T116" s="79"/>
+      <c r="R116" s="83"/>
+      <c r="S116" s="83"/>
+      <c r="T116" s="83"/>
       <c r="U116" s="2"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
@@ -9401,34 +7072,34 @@
       <c r="U128" s="2"/>
     </row>
     <row r="129" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B129" s="73">
+      <c r="B129" s="74">
         <v>45909</v>
       </c>
-      <c r="C129" s="74"/>
-      <c r="D129" s="73">
+      <c r="C129" s="75"/>
+      <c r="D129" s="74">
         <v>45910</v>
       </c>
-      <c r="E129" s="74"/>
-      <c r="F129" s="73">
+      <c r="E129" s="75"/>
+      <c r="F129" s="74">
         <v>45911</v>
       </c>
-      <c r="G129" s="74"/>
-      <c r="H129" s="73">
+      <c r="G129" s="75"/>
+      <c r="H129" s="74">
         <v>45912</v>
       </c>
-      <c r="I129" s="74"/>
-      <c r="J129" s="73">
+      <c r="I129" s="75"/>
+      <c r="J129" s="74">
         <v>45913</v>
       </c>
-      <c r="K129" s="74"/>
-      <c r="L129" s="73">
+      <c r="K129" s="75"/>
+      <c r="L129" s="74">
         <v>45914</v>
       </c>
-      <c r="M129" s="74"/>
-      <c r="N129" s="73">
+      <c r="M129" s="75"/>
+      <c r="N129" s="74">
         <v>45915</v>
       </c>
-      <c r="O129" s="74"/>
+      <c r="O129" s="75"/>
       <c r="P129" s="66"/>
       <c r="Q129" s="64"/>
       <c r="R129" s="64"/>
@@ -9675,10 +7346,10 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="P134" s="66"/>
-      <c r="Q134" s="80" t="s">
+      <c r="Q134" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R134" s="80"/>
+      <c r="R134" s="84"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
     </row>
@@ -9726,10 +7397,10 @@
         <v>0.5</v>
       </c>
       <c r="P135" s="66"/>
-      <c r="Q135" s="81" t="s">
+      <c r="Q135" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R135" s="81"/>
+      <c r="R135" s="85"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
     </row>
@@ -9777,10 +7448,10 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="P136" s="66"/>
-      <c r="Q136" s="82" t="s">
+      <c r="Q136" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R136" s="82"/>
+      <c r="R136" s="86"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
     </row>
@@ -9824,12 +7495,12 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="P137" s="66"/>
-      <c r="Q137" s="79" t="s">
+      <c r="Q137" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R137" s="79"/>
-      <c r="S137" s="79"/>
-      <c r="T137" s="79"/>
+      <c r="R137" s="83"/>
+      <c r="S137" s="83"/>
+      <c r="T137" s="83"/>
     </row>
     <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="29">
@@ -10190,34 +7861,34 @@
     </row>
     <row r="149" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="150" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B150" s="73">
+      <c r="B150" s="74">
         <v>45916</v>
       </c>
-      <c r="C150" s="74"/>
-      <c r="D150" s="73">
+      <c r="C150" s="75"/>
+      <c r="D150" s="74">
         <v>45917</v>
       </c>
-      <c r="E150" s="74"/>
-      <c r="F150" s="73">
+      <c r="E150" s="75"/>
+      <c r="F150" s="74">
         <v>45918</v>
       </c>
-      <c r="G150" s="74"/>
-      <c r="H150" s="73">
+      <c r="G150" s="75"/>
+      <c r="H150" s="74">
         <v>45919</v>
       </c>
-      <c r="I150" s="74"/>
-      <c r="J150" s="73">
+      <c r="I150" s="75"/>
+      <c r="J150" s="74">
         <v>45920</v>
       </c>
-      <c r="K150" s="74"/>
-      <c r="L150" s="73">
+      <c r="K150" s="75"/>
+      <c r="L150" s="74">
         <v>45921</v>
       </c>
-      <c r="M150" s="74"/>
-      <c r="N150" s="73">
+      <c r="M150" s="75"/>
+      <c r="N150" s="74">
         <v>45922</v>
       </c>
-      <c r="O150" s="74"/>
+      <c r="O150" s="75"/>
       <c r="P150" s="66"/>
       <c r="Q150" s="64"/>
       <c r="R150" s="64"/>
@@ -10464,10 +8135,10 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="P155" s="66"/>
-      <c r="Q155" s="80" t="s">
+      <c r="Q155" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R155" s="80"/>
+      <c r="R155" s="84"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
     </row>
@@ -10515,10 +8186,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="P156" s="66"/>
-      <c r="Q156" s="81" t="s">
+      <c r="Q156" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R156" s="81"/>
+      <c r="R156" s="85"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
     </row>
@@ -10566,10 +8237,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P157" s="66"/>
-      <c r="Q157" s="82" t="s">
+      <c r="Q157" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R157" s="82"/>
+      <c r="R157" s="86"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
     </row>
@@ -10617,12 +8288,12 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="P158" s="66"/>
-      <c r="Q158" s="79" t="s">
+      <c r="Q158" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R158" s="79"/>
-      <c r="S158" s="79"/>
-      <c r="T158" s="79"/>
+      <c r="R158" s="83"/>
+      <c r="S158" s="83"/>
+      <c r="T158" s="83"/>
     </row>
     <row r="159" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B159" s="39">
@@ -10979,34 +8650,34 @@
     </row>
     <row r="170" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="171" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B171" s="73">
+      <c r="B171" s="74">
         <v>45923</v>
       </c>
-      <c r="C171" s="74"/>
-      <c r="D171" s="73">
+      <c r="C171" s="75"/>
+      <c r="D171" s="74">
         <v>45924</v>
       </c>
-      <c r="E171" s="74"/>
-      <c r="F171" s="73">
+      <c r="E171" s="75"/>
+      <c r="F171" s="74">
         <v>45925</v>
       </c>
-      <c r="G171" s="74"/>
-      <c r="H171" s="73">
+      <c r="G171" s="75"/>
+      <c r="H171" s="74">
         <v>45926</v>
       </c>
-      <c r="I171" s="74"/>
-      <c r="J171" s="73">
+      <c r="I171" s="75"/>
+      <c r="J171" s="74">
         <v>45927</v>
       </c>
-      <c r="K171" s="74"/>
-      <c r="L171" s="73">
+      <c r="K171" s="75"/>
+      <c r="L171" s="74">
         <v>45928</v>
       </c>
-      <c r="M171" s="74"/>
-      <c r="N171" s="73">
+      <c r="M171" s="75"/>
+      <c r="N171" s="74">
         <v>45929</v>
       </c>
-      <c r="O171" s="74"/>
+      <c r="O171" s="75"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="64"/>
       <c r="R171" s="64"/>
@@ -11253,10 +8924,10 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="P176" s="66"/>
-      <c r="Q176" s="80" t="s">
+      <c r="Q176" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R176" s="80"/>
+      <c r="R176" s="84"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
     </row>
@@ -11304,10 +8975,10 @@
         <v>0.30208333333333331</v>
       </c>
       <c r="P177" s="66"/>
-      <c r="Q177" s="81" t="s">
+      <c r="Q177" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R177" s="81"/>
+      <c r="R177" s="85"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
     </row>
@@ -11355,10 +9026,10 @@
         <v>0.375</v>
       </c>
       <c r="P178" s="66"/>
-      <c r="Q178" s="82" t="s">
+      <c r="Q178" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R178" s="82"/>
+      <c r="R178" s="86"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
     </row>
@@ -11406,12 +9077,12 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="P179" s="66"/>
-      <c r="Q179" s="79" t="s">
+      <c r="Q179" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R179" s="79"/>
-      <c r="S179" s="79"/>
-      <c r="T179" s="79"/>
+      <c r="R179" s="83"/>
+      <c r="S179" s="83"/>
+      <c r="T179" s="83"/>
     </row>
     <row r="180" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B180" s="38">
@@ -11756,34 +9427,34 @@
     </row>
     <row r="191" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="192" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B192" s="73">
+      <c r="B192" s="74">
         <v>45930</v>
       </c>
-      <c r="C192" s="74"/>
-      <c r="D192" s="73">
+      <c r="C192" s="75"/>
+      <c r="D192" s="74">
         <v>45931</v>
       </c>
-      <c r="E192" s="74"/>
-      <c r="F192" s="73">
+      <c r="E192" s="75"/>
+      <c r="F192" s="74">
         <v>45932</v>
       </c>
-      <c r="G192" s="74"/>
-      <c r="H192" s="73">
+      <c r="G192" s="75"/>
+      <c r="H192" s="74">
         <v>45933</v>
       </c>
-      <c r="I192" s="74"/>
-      <c r="J192" s="73">
+      <c r="I192" s="75"/>
+      <c r="J192" s="74">
         <v>45934</v>
       </c>
-      <c r="K192" s="74"/>
-      <c r="L192" s="73">
+      <c r="K192" s="75"/>
+      <c r="L192" s="74">
         <v>45935</v>
       </c>
-      <c r="M192" s="74"/>
-      <c r="N192" s="73">
+      <c r="M192" s="75"/>
+      <c r="N192" s="74">
         <v>45936</v>
       </c>
-      <c r="O192" s="74"/>
+      <c r="O192" s="75"/>
       <c r="P192" s="66"/>
       <c r="Q192" s="64"/>
       <c r="R192" s="64"/>
@@ -12030,10 +9701,10 @@
         <v>0.46875</v>
       </c>
       <c r="P197" s="66"/>
-      <c r="Q197" s="80" t="s">
+      <c r="Q197" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R197" s="80"/>
+      <c r="R197" s="84"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
     </row>
@@ -12081,10 +9752,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="P198" s="66"/>
-      <c r="Q198" s="81" t="s">
+      <c r="Q198" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R198" s="81"/>
+      <c r="R198" s="85"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
     </row>
@@ -12132,10 +9803,10 @@
         <v>0.84375</v>
       </c>
       <c r="P199" s="66"/>
-      <c r="Q199" s="82" t="s">
+      <c r="Q199" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R199" s="82"/>
+      <c r="R199" s="86"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
     </row>
@@ -12183,12 +9854,12 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="P200" s="66"/>
-      <c r="Q200" s="79" t="s">
+      <c r="Q200" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R200" s="79"/>
-      <c r="S200" s="79"/>
-      <c r="T200" s="79"/>
+      <c r="R200" s="83"/>
+      <c r="S200" s="83"/>
+      <c r="T200" s="83"/>
     </row>
     <row r="201" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B201" s="47">
@@ -12527,34 +10198,34 @@
     </row>
     <row r="212" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="73">
+      <c r="B213" s="74">
         <v>45937</v>
       </c>
-      <c r="C213" s="74"/>
-      <c r="D213" s="73">
+      <c r="C213" s="75"/>
+      <c r="D213" s="74">
         <v>45938</v>
       </c>
-      <c r="E213" s="74"/>
-      <c r="F213" s="73">
+      <c r="E213" s="75"/>
+      <c r="F213" s="74">
         <v>45939</v>
       </c>
-      <c r="G213" s="74"/>
-      <c r="H213" s="73">
+      <c r="G213" s="75"/>
+      <c r="H213" s="74">
         <v>45940</v>
       </c>
-      <c r="I213" s="74"/>
-      <c r="J213" s="73">
+      <c r="I213" s="75"/>
+      <c r="J213" s="74">
         <v>45941</v>
       </c>
-      <c r="K213" s="74"/>
-      <c r="L213" s="73">
+      <c r="K213" s="75"/>
+      <c r="L213" s="74">
         <v>45942</v>
       </c>
-      <c r="M213" s="74"/>
-      <c r="N213" s="73">
+      <c r="M213" s="75"/>
+      <c r="N213" s="74">
         <v>45943</v>
       </c>
-      <c r="O213" s="74"/>
+      <c r="O213" s="75"/>
       <c r="P213" s="66"/>
       <c r="Q213" s="64"/>
       <c r="R213" s="64"/>
@@ -12801,10 +10472,10 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="P218" s="66"/>
-      <c r="Q218" s="80" t="s">
+      <c r="Q218" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R218" s="80"/>
+      <c r="R218" s="84"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
     </row>
@@ -12852,10 +10523,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="P219" s="66"/>
-      <c r="Q219" s="81" t="s">
+      <c r="Q219" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R219" s="81"/>
+      <c r="R219" s="85"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
     </row>
@@ -12899,10 +10570,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="P220" s="66"/>
-      <c r="Q220" s="82" t="s">
+      <c r="Q220" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R220" s="82"/>
+      <c r="R220" s="86"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
     </row>
@@ -12942,12 +10613,12 @@
       <c r="N221" s="14"/>
       <c r="O221" s="28"/>
       <c r="P221" s="66"/>
-      <c r="Q221" s="79" t="s">
+      <c r="Q221" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R221" s="79"/>
-      <c r="S221" s="79"/>
-      <c r="T221" s="79"/>
+      <c r="R221" s="83"/>
+      <c r="S221" s="83"/>
+      <c r="T221" s="83"/>
     </row>
     <row r="222" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B222" s="14"/>
@@ -13288,34 +10959,34 @@
     </row>
     <row r="233" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="234" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B234" s="73">
+      <c r="B234" s="74">
         <v>45944</v>
       </c>
-      <c r="C234" s="74"/>
-      <c r="D234" s="73">
+      <c r="C234" s="75"/>
+      <c r="D234" s="74">
         <v>45945</v>
       </c>
-      <c r="E234" s="74"/>
-      <c r="F234" s="73">
+      <c r="E234" s="75"/>
+      <c r="F234" s="74">
         <v>45946</v>
       </c>
-      <c r="G234" s="74"/>
-      <c r="H234" s="73">
+      <c r="G234" s="75"/>
+      <c r="H234" s="74">
         <v>45947</v>
       </c>
-      <c r="I234" s="74"/>
-      <c r="J234" s="73">
+      <c r="I234" s="75"/>
+      <c r="J234" s="74">
         <v>45948</v>
       </c>
-      <c r="K234" s="74"/>
-      <c r="L234" s="73">
+      <c r="K234" s="75"/>
+      <c r="L234" s="74">
         <v>45949</v>
       </c>
-      <c r="M234" s="74"/>
-      <c r="N234" s="73">
+      <c r="M234" s="75"/>
+      <c r="N234" s="74">
         <v>45950</v>
       </c>
-      <c r="O234" s="74"/>
+      <c r="O234" s="75"/>
       <c r="P234" s="66"/>
       <c r="Q234" s="64"/>
       <c r="R234" s="64"/>
@@ -13562,10 +11233,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="P239" s="66"/>
-      <c r="Q239" s="80" t="s">
+      <c r="Q239" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="R239" s="80"/>
+      <c r="R239" s="84"/>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
     </row>
@@ -13613,10 +11284,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="P240" s="66"/>
-      <c r="Q240" s="81" t="s">
+      <c r="Q240" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="R240" s="81"/>
+      <c r="R240" s="85"/>
       <c r="S240" s="2"/>
       <c r="T240" s="2"/>
     </row>
@@ -13664,10 +11335,10 @@
         <v>0.6875</v>
       </c>
       <c r="P241" s="66"/>
-      <c r="Q241" s="82" t="s">
+      <c r="Q241" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="R241" s="82"/>
+      <c r="R241" s="86"/>
       <c r="S241" s="2"/>
       <c r="T241" s="2"/>
     </row>
@@ -13699,12 +11370,12 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="P242" s="66"/>
-      <c r="Q242" s="79" t="s">
+      <c r="Q242" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="R242" s="79"/>
-      <c r="S242" s="79"/>
-      <c r="T242" s="79"/>
+      <c r="R242" s="83"/>
+      <c r="S242" s="83"/>
+      <c r="T242" s="83"/>
     </row>
     <row r="243" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B243" s="38">
@@ -14015,34 +11686,34 @@
     </row>
     <row r="254" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="255" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B255" s="73">
+      <c r="B255" s="74">
         <v>45951</v>
       </c>
-      <c r="C255" s="74"/>
-      <c r="D255" s="73">
+      <c r="C255" s="75"/>
+      <c r="D255" s="74">
         <v>45952</v>
       </c>
-      <c r="E255" s="74"/>
-      <c r="F255" s="73">
+      <c r="E255" s="75"/>
+      <c r="F255" s="74">
         <v>45953</v>
       </c>
-      <c r="G255" s="74"/>
-      <c r="H255" s="73">
+      <c r="G255" s="75"/>
+      <c r="H255" s="74">
         <v>45954</v>
       </c>
-      <c r="I255" s="74"/>
-      <c r="J255" s="73">
+      <c r="I255" s="75"/>
+      <c r="J255" s="74">
         <v>45955</v>
       </c>
-      <c r="K255" s="74"/>
-      <c r="L255" s="73">
+      <c r="K255" s="75"/>
+      <c r="L255" s="74">
         <v>45956</v>
       </c>
-      <c r="M255" s="74"/>
-      <c r="N255" s="73">
+      <c r="M255" s="75"/>
+      <c r="N255" s="74">
         <v>45957</v>
       </c>
-      <c r="O255" s="74"/>
+      <c r="O255" s="75"/>
       <c r="P255" s="66"/>
       <c r="Q255" s="64"/>
       <c r="R255" s="64"/>
@@ -14289,10 +11960,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="P260" s="66"/>
-      <c r="Q260" s="71" t="s">
+      <c r="Q260" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R260" s="71"/>
+      <c r="R260" s="76"/>
       <c r="S260" s="53"/>
       <c r="T260" s="53"/>
     </row>
@@ -14340,10 +12011,10 @@
         <v>0.63541666666666663</v>
       </c>
       <c r="P261" s="66"/>
-      <c r="Q261" s="78" t="s">
+      <c r="Q261" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="R261" s="78"/>
+      <c r="R261" s="82"/>
       <c r="S261" s="53"/>
       <c r="T261" s="53"/>
     </row>
@@ -14391,10 +12062,10 @@
         <v>0.75</v>
       </c>
       <c r="P262" s="66"/>
-      <c r="Q262" s="75" t="s">
+      <c r="Q262" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="R262" s="75"/>
+      <c r="R262" s="80"/>
       <c r="S262" s="53"/>
       <c r="T262" s="53"/>
     </row>
@@ -14434,12 +12105,12 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="P263" s="66"/>
-      <c r="Q263" s="76" t="s">
+      <c r="Q263" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="R263" s="76"/>
-      <c r="S263" s="76"/>
-      <c r="T263" s="76"/>
+      <c r="R263" s="81"/>
+      <c r="S263" s="81"/>
+      <c r="T263" s="81"/>
     </row>
     <row r="264" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B264" s="14"/>
@@ -14461,10 +12132,10 @@
         <v>0.92708333333333337</v>
       </c>
       <c r="P264" s="66"/>
-      <c r="Q264" s="77" t="s">
+      <c r="Q264" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R264" s="77"/>
+      <c r="R264" s="78"/>
       <c r="S264" s="53"/>
       <c r="T264" s="53"/>
     </row>
@@ -14521,10 +12192,10 @@
       </c>
       <c r="F267" s="14"/>
       <c r="G267" s="28"/>
-      <c r="H267" s="84" t="s">
+      <c r="H267" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="I267" s="85" t="s">
+      <c r="I267" s="72" t="s">
         <v>76</v>
       </c>
       <c r="J267" s="14"/>
@@ -14729,34 +12400,34 @@
     </row>
     <row r="275" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="276" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B276" s="73">
+      <c r="B276" s="74">
         <v>45958</v>
       </c>
-      <c r="C276" s="74"/>
-      <c r="D276" s="73">
+      <c r="C276" s="75"/>
+      <c r="D276" s="74">
         <v>45959</v>
       </c>
-      <c r="E276" s="74"/>
-      <c r="F276" s="73">
+      <c r="E276" s="75"/>
+      <c r="F276" s="74">
         <v>45960</v>
       </c>
-      <c r="G276" s="74"/>
-      <c r="H276" s="73">
+      <c r="G276" s="75"/>
+      <c r="H276" s="74">
         <v>45961</v>
       </c>
-      <c r="I276" s="74"/>
-      <c r="J276" s="73">
+      <c r="I276" s="75"/>
+      <c r="J276" s="74">
         <v>45962</v>
       </c>
-      <c r="K276" s="74"/>
-      <c r="L276" s="73">
+      <c r="K276" s="75"/>
+      <c r="L276" s="74">
         <v>45963</v>
       </c>
-      <c r="M276" s="74"/>
-      <c r="N276" s="73">
+      <c r="M276" s="75"/>
+      <c r="N276" s="74">
         <v>45964</v>
       </c>
-      <c r="O276" s="74"/>
+      <c r="O276" s="75"/>
       <c r="P276" s="66"/>
       <c r="Q276" s="64"/>
       <c r="R276" s="64"/>
@@ -15003,10 +12674,10 @@
         <v>0.40625</v>
       </c>
       <c r="P281" s="66"/>
-      <c r="Q281" s="71" t="s">
+      <c r="Q281" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R281" s="71"/>
+      <c r="R281" s="76"/>
       <c r="S281" s="53"/>
       <c r="T281" s="53"/>
     </row>
@@ -15054,10 +12725,10 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="P282" s="66"/>
-      <c r="Q282" s="78" t="s">
+      <c r="Q282" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="R282" s="78"/>
+      <c r="R282" s="82"/>
       <c r="S282" s="53"/>
       <c r="T282" s="53"/>
     </row>
@@ -15105,10 +12776,10 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="P283" s="66"/>
-      <c r="Q283" s="75" t="s">
+      <c r="Q283" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="R283" s="75"/>
+      <c r="R283" s="80"/>
       <c r="S283" s="53"/>
       <c r="T283" s="53"/>
     </row>
@@ -15152,12 +12823,12 @@
         <v>0.84375</v>
       </c>
       <c r="P284" s="66"/>
-      <c r="Q284" s="76" t="s">
+      <c r="Q284" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="R284" s="76"/>
-      <c r="S284" s="76"/>
-      <c r="T284" s="76"/>
+      <c r="R284" s="81"/>
+      <c r="S284" s="81"/>
+      <c r="T284" s="81"/>
     </row>
     <row r="285" spans="2:20" ht="60" x14ac:dyDescent="0.25">
       <c r="B285" s="47">
@@ -15187,10 +12858,10 @@
       <c r="N285" s="14"/>
       <c r="O285" s="28"/>
       <c r="P285" s="66"/>
-      <c r="Q285" s="77" t="s">
+      <c r="Q285" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R285" s="77"/>
+      <c r="R285" s="78"/>
       <c r="S285" s="53"/>
       <c r="T285" s="53"/>
     </row>
@@ -15457,34 +13128,34 @@
     </row>
     <row r="296" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="297" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B297" s="73">
+      <c r="B297" s="74">
         <v>45965</v>
       </c>
-      <c r="C297" s="74"/>
-      <c r="D297" s="73">
+      <c r="C297" s="75"/>
+      <c r="D297" s="74">
         <v>45966</v>
       </c>
-      <c r="E297" s="74"/>
-      <c r="F297" s="73">
+      <c r="E297" s="75"/>
+      <c r="F297" s="74">
         <v>45967</v>
       </c>
-      <c r="G297" s="74"/>
-      <c r="H297" s="73">
+      <c r="G297" s="75"/>
+      <c r="H297" s="74">
         <v>45968</v>
       </c>
-      <c r="I297" s="74"/>
-      <c r="J297" s="73">
+      <c r="I297" s="75"/>
+      <c r="J297" s="74">
         <v>45969</v>
       </c>
-      <c r="K297" s="74"/>
-      <c r="L297" s="73">
+      <c r="K297" s="75"/>
+      <c r="L297" s="74">
         <v>45970</v>
       </c>
-      <c r="M297" s="74"/>
-      <c r="N297" s="73">
+      <c r="M297" s="75"/>
+      <c r="N297" s="74">
         <v>45971</v>
       </c>
-      <c r="O297" s="74"/>
+      <c r="O297" s="75"/>
       <c r="P297" s="66"/>
       <c r="Q297" s="64"/>
       <c r="R297" s="64"/>
@@ -15731,10 +13402,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="P302" s="66"/>
-      <c r="Q302" s="71" t="s">
+      <c r="Q302" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R302" s="71"/>
+      <c r="R302" s="76"/>
       <c r="S302" s="53"/>
       <c r="T302" s="53"/>
     </row>
@@ -15782,10 +13453,10 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="P303" s="66"/>
-      <c r="Q303" s="78" t="s">
+      <c r="Q303" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="R303" s="78"/>
+      <c r="R303" s="82"/>
       <c r="S303" s="53"/>
       <c r="T303" s="53"/>
     </row>
@@ -15833,10 +13504,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P304" s="66"/>
-      <c r="Q304" s="75" t="s">
+      <c r="Q304" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="R304" s="75"/>
+      <c r="R304" s="80"/>
       <c r="S304" s="53"/>
       <c r="T304" s="53"/>
     </row>
@@ -15884,12 +13555,12 @@
         <v>0.78125</v>
       </c>
       <c r="P305" s="66"/>
-      <c r="Q305" s="76" t="s">
+      <c r="Q305" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="R305" s="76"/>
-      <c r="S305" s="76"/>
-      <c r="T305" s="76"/>
+      <c r="R305" s="81"/>
+      <c r="S305" s="81"/>
+      <c r="T305" s="81"/>
     </row>
     <row r="306" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B306" s="14"/>
@@ -16193,34 +13864,34 @@
     </row>
     <row r="317" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="318" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B318" s="73">
+      <c r="B318" s="74">
         <v>45972</v>
       </c>
-      <c r="C318" s="74"/>
-      <c r="D318" s="73">
+      <c r="C318" s="75"/>
+      <c r="D318" s="74">
         <v>45973</v>
       </c>
-      <c r="E318" s="74"/>
-      <c r="F318" s="73">
+      <c r="E318" s="75"/>
+      <c r="F318" s="74">
         <v>45974</v>
       </c>
-      <c r="G318" s="74"/>
-      <c r="H318" s="73">
+      <c r="G318" s="75"/>
+      <c r="H318" s="74">
         <v>45975</v>
       </c>
-      <c r="I318" s="74"/>
-      <c r="J318" s="73">
+      <c r="I318" s="75"/>
+      <c r="J318" s="74">
         <v>45976</v>
       </c>
-      <c r="K318" s="74"/>
-      <c r="L318" s="73">
+      <c r="K318" s="75"/>
+      <c r="L318" s="74">
         <v>45977</v>
       </c>
-      <c r="M318" s="74"/>
-      <c r="N318" s="73">
+      <c r="M318" s="75"/>
+      <c r="N318" s="74">
         <v>45978</v>
       </c>
-      <c r="O318" s="74"/>
+      <c r="O318" s="75"/>
       <c r="P318" s="66"/>
       <c r="Q318" s="64"/>
       <c r="R318" s="64"/>
@@ -16467,10 +14138,10 @@
         <v>0.4375</v>
       </c>
       <c r="P323" s="66"/>
-      <c r="Q323" s="71" t="s">
+      <c r="Q323" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R323" s="71"/>
+      <c r="R323" s="76"/>
       <c r="S323" s="53"/>
       <c r="T323" s="53"/>
     </row>
@@ -16518,10 +14189,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="P324" s="66"/>
-      <c r="Q324" s="78" t="s">
+      <c r="Q324" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="R324" s="78"/>
+      <c r="R324" s="82"/>
       <c r="S324" s="53"/>
       <c r="T324" s="53"/>
     </row>
@@ -16902,34 +14573,34 @@
     </row>
     <row r="338" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="339" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B339" s="73">
+      <c r="B339" s="74">
         <v>45979</v>
       </c>
-      <c r="C339" s="74"/>
-      <c r="D339" s="73">
+      <c r="C339" s="75"/>
+      <c r="D339" s="74">
         <v>45980</v>
       </c>
-      <c r="E339" s="74"/>
-      <c r="F339" s="73">
+      <c r="E339" s="75"/>
+      <c r="F339" s="74">
         <v>45981</v>
       </c>
-      <c r="G339" s="74"/>
-      <c r="H339" s="73">
+      <c r="G339" s="75"/>
+      <c r="H339" s="74">
         <v>45982</v>
       </c>
-      <c r="I339" s="74"/>
-      <c r="J339" s="73">
+      <c r="I339" s="75"/>
+      <c r="J339" s="74">
         <v>45983</v>
       </c>
-      <c r="K339" s="74"/>
-      <c r="L339" s="73">
+      <c r="K339" s="75"/>
+      <c r="L339" s="74">
         <v>45984</v>
       </c>
-      <c r="M339" s="74"/>
-      <c r="N339" s="73">
+      <c r="M339" s="75"/>
+      <c r="N339" s="74">
         <v>45985</v>
       </c>
-      <c r="O339" s="74"/>
+      <c r="O339" s="75"/>
       <c r="P339" s="66"/>
       <c r="Q339" s="64"/>
       <c r="R339" s="64"/>
@@ -17176,10 +14847,10 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="P344" s="66"/>
-      <c r="Q344" s="71" t="s">
+      <c r="Q344" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R344" s="71"/>
+      <c r="R344" s="76"/>
       <c r="S344" s="53"/>
       <c r="T344" s="53"/>
     </row>
@@ -17578,34 +15249,34 @@
     </row>
     <row r="359" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="360" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B360" s="73">
+      <c r="B360" s="74">
         <v>45986</v>
       </c>
-      <c r="C360" s="74"/>
-      <c r="D360" s="73">
+      <c r="C360" s="75"/>
+      <c r="D360" s="74">
         <v>45987</v>
       </c>
-      <c r="E360" s="74"/>
-      <c r="F360" s="73">
+      <c r="E360" s="75"/>
+      <c r="F360" s="74">
         <v>45988</v>
       </c>
-      <c r="G360" s="74"/>
-      <c r="H360" s="73">
+      <c r="G360" s="75"/>
+      <c r="H360" s="74">
         <v>45989</v>
       </c>
-      <c r="I360" s="74"/>
-      <c r="J360" s="73">
+      <c r="I360" s="88"/>
+      <c r="J360" s="74">
         <v>45990</v>
       </c>
-      <c r="K360" s="74"/>
-      <c r="L360" s="73">
+      <c r="K360" s="75"/>
+      <c r="L360" s="74">
         <v>45991</v>
       </c>
-      <c r="M360" s="74"/>
-      <c r="N360" s="73">
+      <c r="M360" s="75"/>
+      <c r="N360" s="74">
         <v>45992</v>
       </c>
-      <c r="O360" s="74"/>
+      <c r="O360" s="75"/>
       <c r="P360" s="66"/>
       <c r="Q360" s="64"/>
       <c r="R360" s="64"/>
@@ -17632,7 +15303,7 @@
       <c r="H361" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I361" s="4" t="s">
+      <c r="I361" s="89" t="s">
         <v>12</v>
       </c>
       <c r="J361" s="3" t="s">
@@ -17676,12 +15347,16 @@
       <c r="G362" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="H362" s="29"/>
-      <c r="I362" s="28"/>
-      <c r="J362" s="59">
-        <v>150</v>
-      </c>
-      <c r="K362" s="60">
+      <c r="H362" s="59">
+        <v>150</v>
+      </c>
+      <c r="I362" s="60">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="J362" s="29">
+        <v>150</v>
+      </c>
+      <c r="K362" s="9">
         <v>0.11458333333333333</v>
       </c>
       <c r="L362" s="29">
@@ -17719,12 +15394,16 @@
       <c r="G363" s="28">
         <v>0.21875</v>
       </c>
-      <c r="H363" s="29"/>
-      <c r="I363" s="28"/>
-      <c r="J363" s="59">
-        <v>150</v>
-      </c>
-      <c r="K363" s="60">
+      <c r="H363" s="59">
+        <v>150</v>
+      </c>
+      <c r="I363" s="60">
+        <v>0.28125</v>
+      </c>
+      <c r="J363" s="29">
+        <v>150</v>
+      </c>
+      <c r="K363" s="9">
         <v>0.28125</v>
       </c>
       <c r="L363" s="29">
@@ -17762,12 +15441,16 @@
       <c r="G364" s="28">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H364" s="29"/>
-      <c r="I364" s="28"/>
-      <c r="J364" s="59">
-        <v>120</v>
-      </c>
-      <c r="K364" s="60">
+      <c r="H364" s="59">
+        <v>120</v>
+      </c>
+      <c r="I364" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="J364" s="29">
+        <v>120</v>
+      </c>
+      <c r="K364" s="9">
         <v>0.5</v>
       </c>
       <c r="L364" s="29">
@@ -17805,12 +15488,16 @@
       <c r="G365" s="28">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H365" s="29"/>
-      <c r="I365" s="28"/>
-      <c r="J365" s="59">
-        <v>120</v>
-      </c>
-      <c r="K365" s="60">
+      <c r="H365" s="59">
+        <v>120</v>
+      </c>
+      <c r="I365" s="60">
+        <v>0.65625</v>
+      </c>
+      <c r="J365" s="29">
+        <v>120</v>
+      </c>
+      <c r="K365" s="9">
         <v>0.65625</v>
       </c>
       <c r="L365" s="29">
@@ -17826,10 +15513,10 @@
         <v>0.69791666666666663</v>
       </c>
       <c r="P365" s="66"/>
-      <c r="Q365" s="71" t="s">
+      <c r="Q365" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R365" s="71"/>
+      <c r="R365" s="76"/>
     </row>
     <row r="366" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B366" s="29">
@@ -17850,12 +15537,16 @@
       <c r="G366" s="28">
         <v>0.65625</v>
       </c>
-      <c r="H366" s="29"/>
-      <c r="I366" s="28"/>
-      <c r="J366" s="59">
-        <v>150</v>
-      </c>
-      <c r="K366" s="60">
+      <c r="H366" s="59">
+        <v>150</v>
+      </c>
+      <c r="I366" s="60">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J366" s="29">
+        <v>150</v>
+      </c>
+      <c r="K366" s="9">
         <v>0.79166666666666663</v>
       </c>
       <c r="L366" s="29">
@@ -17871,10 +15562,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="P366" s="66"/>
-      <c r="Q366" s="72" t="s">
+      <c r="Q366" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="R366" s="72"/>
+      <c r="R366" s="79"/>
     </row>
     <row r="367" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B367" s="29">
@@ -17895,12 +15586,16 @@
       <c r="G367" s="28">
         <v>0.82291666666666663</v>
       </c>
-      <c r="H367" s="29"/>
-      <c r="I367" s="28"/>
-      <c r="J367" s="59">
+      <c r="H367" s="59">
         <v>90</v>
       </c>
-      <c r="K367" s="60">
+      <c r="I367" s="60">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J367" s="29">
+        <v>90</v>
+      </c>
+      <c r="K367" s="9">
         <v>0.91666666666666663</v>
       </c>
       <c r="L367" s="14"/>
@@ -17920,16 +15615,16 @@
       <c r="E368" s="28">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F368" s="40">
+      <c r="F368" s="29">
         <v>150</v>
       </c>
       <c r="G368" s="28">
         <v>0.9375</v>
       </c>
       <c r="H368" s="40"/>
-      <c r="I368" s="28"/>
+      <c r="I368" s="90"/>
       <c r="J368" s="14"/>
-      <c r="K368" s="60"/>
+      <c r="K368" s="9"/>
       <c r="L368" s="14"/>
       <c r="M368" s="36"/>
       <c r="N368" s="14"/>
@@ -17946,7 +15641,7 @@
       <c r="F369" s="40"/>
       <c r="G369" s="28"/>
       <c r="H369" s="40"/>
-      <c r="I369" s="28"/>
+      <c r="I369" s="90"/>
       <c r="J369" s="14"/>
       <c r="K369" s="28"/>
       <c r="L369" s="14"/>
@@ -17965,7 +15660,7 @@
       <c r="F370" s="40"/>
       <c r="G370" s="28"/>
       <c r="H370" s="40"/>
-      <c r="I370" s="28"/>
+      <c r="I370" s="90"/>
       <c r="J370" s="14"/>
       <c r="K370" s="28"/>
       <c r="L370" s="14"/>
@@ -17983,7 +15678,7 @@
       <c r="F371" s="40"/>
       <c r="G371" s="28"/>
       <c r="H371" s="40"/>
-      <c r="I371" s="28"/>
+      <c r="I371" s="90"/>
       <c r="J371" s="14"/>
       <c r="K371" s="28"/>
       <c r="L371" s="14"/>
@@ -18002,7 +15697,7 @@
       <c r="F372" s="40"/>
       <c r="G372" s="28"/>
       <c r="H372" s="40"/>
-      <c r="I372" s="28"/>
+      <c r="I372" s="90"/>
       <c r="J372" s="14"/>
       <c r="K372" s="46"/>
       <c r="L372" s="14"/>
@@ -18021,7 +15716,7 @@
       <c r="F373" s="14"/>
       <c r="G373" s="28"/>
       <c r="H373" s="14"/>
-      <c r="I373" s="28"/>
+      <c r="I373" s="90"/>
       <c r="J373" s="14"/>
       <c r="K373" s="28"/>
       <c r="L373" s="14"/>
@@ -18040,7 +15735,7 @@
       <c r="F374" s="14"/>
       <c r="G374" s="28"/>
       <c r="H374" s="14"/>
-      <c r="I374" s="28"/>
+      <c r="I374" s="90"/>
       <c r="J374" s="14"/>
       <c r="K374" s="28"/>
       <c r="L374" s="14"/>
@@ -18059,7 +15754,7 @@
       <c r="F375" s="14"/>
       <c r="G375" s="20"/>
       <c r="H375" s="14"/>
-      <c r="I375" s="20"/>
+      <c r="I375" s="91"/>
       <c r="J375" s="14"/>
       <c r="K375" s="20"/>
       <c r="L375" s="14"/>
@@ -18078,7 +15773,7 @@
       <c r="F376" s="14"/>
       <c r="G376" s="12"/>
       <c r="H376" s="14"/>
-      <c r="I376" s="12"/>
+      <c r="I376" s="92"/>
       <c r="J376" s="14"/>
       <c r="K376" s="12"/>
       <c r="L376" s="14"/>
@@ -18097,7 +15792,7 @@
       <c r="F377" s="19"/>
       <c r="G377" s="12"/>
       <c r="H377" s="19"/>
-      <c r="I377" s="12"/>
+      <c r="I377" s="92"/>
       <c r="J377" s="19"/>
       <c r="K377" s="12"/>
       <c r="L377" s="19"/>
@@ -18124,7 +15819,7 @@
       <c r="H378" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I378" s="12"/>
+      <c r="I378" s="92"/>
       <c r="J378" s="24" t="s">
         <v>13</v>
       </c>
@@ -18161,9 +15856,9 @@
       <c r="G379" s="26"/>
       <c r="H379" s="25">
         <f>SUM(H362:H369)+H376</f>
-        <v>0</v>
-      </c>
-      <c r="I379" s="26"/>
+        <v>780</v>
+      </c>
+      <c r="I379" s="93"/>
       <c r="J379" s="25">
         <f>SUM(J362:J369)+J376</f>
         <v>780</v>
@@ -18181,41 +15876,41 @@
       <c r="O379" s="26"/>
       <c r="P379" s="67">
         <f>SUM(B379:O379)/7</f>
-        <v>650</v>
+        <v>761.42857142857144</v>
       </c>
       <c r="Q379" s="64"/>
       <c r="R379" s="64"/>
     </row>
     <row r="380" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="381" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B381" s="73">
+      <c r="B381" s="74">
         <v>45993</v>
       </c>
-      <c r="C381" s="74"/>
-      <c r="D381" s="73">
+      <c r="C381" s="75"/>
+      <c r="D381" s="74">
         <v>45994</v>
       </c>
-      <c r="E381" s="74"/>
-      <c r="F381" s="73">
+      <c r="E381" s="75"/>
+      <c r="F381" s="74">
         <v>45995</v>
       </c>
-      <c r="G381" s="74"/>
-      <c r="H381" s="73">
+      <c r="G381" s="75"/>
+      <c r="H381" s="74">
         <v>45996</v>
       </c>
-      <c r="I381" s="74"/>
-      <c r="J381" s="73">
+      <c r="I381" s="75"/>
+      <c r="J381" s="74">
         <v>45997</v>
       </c>
-      <c r="K381" s="74"/>
-      <c r="L381" s="73">
+      <c r="K381" s="75"/>
+      <c r="L381" s="74">
         <v>45998</v>
       </c>
-      <c r="M381" s="74"/>
-      <c r="N381" s="73">
+      <c r="M381" s="75"/>
+      <c r="N381" s="74">
         <v>45999</v>
       </c>
-      <c r="O381" s="74"/>
+      <c r="O381" s="75"/>
       <c r="P381" s="66"/>
       <c r="Q381" s="64"/>
       <c r="R381" s="64"/>
@@ -18452,10 +16147,10 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="P386" s="66"/>
-      <c r="Q386" s="71" t="s">
+      <c r="Q386" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R386" s="71"/>
+      <c r="R386" s="76"/>
     </row>
     <row r="387" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B387" s="63">
@@ -18501,10 +16196,10 @@
         <v>0.75</v>
       </c>
       <c r="P387" s="66"/>
-      <c r="Q387" s="72" t="s">
+      <c r="Q387" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="R387" s="72"/>
+      <c r="R387" s="79"/>
     </row>
     <row r="388" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B388" s="63">
@@ -18550,10 +16245,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="P388" s="66"/>
-      <c r="Q388" s="77" t="s">
+      <c r="Q388" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R388" s="77"/>
+      <c r="R388" s="78"/>
     </row>
     <row r="389" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B389" s="14"/>
@@ -18868,34 +16563,34 @@
     </row>
     <row r="401" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="402" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B402" s="73">
+      <c r="B402" s="74">
         <v>46000</v>
       </c>
-      <c r="C402" s="74"/>
-      <c r="D402" s="73">
+      <c r="C402" s="75"/>
+      <c r="D402" s="74">
         <v>46001</v>
       </c>
-      <c r="E402" s="74"/>
-      <c r="F402" s="73">
+      <c r="E402" s="75"/>
+      <c r="F402" s="74">
         <v>46002</v>
       </c>
-      <c r="G402" s="74"/>
-      <c r="H402" s="73">
+      <c r="G402" s="75"/>
+      <c r="H402" s="74">
         <v>46003</v>
       </c>
-      <c r="I402" s="74"/>
-      <c r="J402" s="73">
+      <c r="I402" s="75"/>
+      <c r="J402" s="74">
         <v>46004</v>
       </c>
-      <c r="K402" s="74"/>
-      <c r="L402" s="73">
+      <c r="K402" s="75"/>
+      <c r="L402" s="74">
         <v>46005</v>
       </c>
-      <c r="M402" s="74"/>
-      <c r="N402" s="73">
+      <c r="M402" s="75"/>
+      <c r="N402" s="74">
         <v>46006</v>
       </c>
-      <c r="O402" s="74"/>
+      <c r="O402" s="75"/>
       <c r="P402" s="66"/>
       <c r="Q402" s="64"/>
       <c r="R402" s="64"/>
@@ -19132,10 +16827,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="P407" s="66"/>
-      <c r="Q407" s="71" t="s">
+      <c r="Q407" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R407" s="71"/>
+      <c r="R407" s="76"/>
     </row>
     <row r="408" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B408" s="47">
@@ -19181,10 +16876,10 @@
         <v>0.65625</v>
       </c>
       <c r="P408" s="66"/>
-      <c r="Q408" s="77" t="s">
+      <c r="Q408" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R408" s="77"/>
+      <c r="R408" s="78"/>
     </row>
     <row r="409" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B409" s="47">
@@ -19535,34 +17230,34 @@
     </row>
     <row r="422" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="423" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B423" s="73">
+      <c r="B423" s="74">
         <v>46007</v>
       </c>
-      <c r="C423" s="74"/>
-      <c r="D423" s="73">
+      <c r="C423" s="75"/>
+      <c r="D423" s="74">
         <v>46008</v>
       </c>
-      <c r="E423" s="74"/>
-      <c r="F423" s="73">
+      <c r="E423" s="75"/>
+      <c r="F423" s="74">
         <v>46009</v>
       </c>
-      <c r="G423" s="74"/>
-      <c r="H423" s="73">
+      <c r="G423" s="75"/>
+      <c r="H423" s="74">
         <v>46010</v>
       </c>
-      <c r="I423" s="74"/>
-      <c r="J423" s="73">
+      <c r="I423" s="75"/>
+      <c r="J423" s="74">
         <v>46011</v>
       </c>
-      <c r="K423" s="74"/>
-      <c r="L423" s="73">
+      <c r="K423" s="75"/>
+      <c r="L423" s="74">
         <v>46012</v>
       </c>
-      <c r="M423" s="74"/>
-      <c r="N423" s="73">
+      <c r="M423" s="75"/>
+      <c r="N423" s="74">
         <v>46013</v>
       </c>
-      <c r="O423" s="74"/>
+      <c r="O423" s="75"/>
       <c r="P423" s="66"/>
       <c r="Q423" s="64"/>
       <c r="R423" s="64"/>
@@ -19686,7 +17381,7 @@
       <c r="I426" s="28">
         <v>0.20833333333333334</v>
       </c>
-      <c r="J426" s="63">
+      <c r="J426" s="73">
         <v>120</v>
       </c>
       <c r="K426" s="28">
@@ -19698,7 +17393,7 @@
       <c r="M426" s="28">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N426" s="63">
+      <c r="N426" s="73">
         <v>150</v>
       </c>
       <c r="O426" s="28">
@@ -19739,13 +17434,13 @@
       <c r="K427" s="28">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L427" s="63">
+      <c r="L427" s="73">
         <v>150</v>
       </c>
       <c r="M427" s="28">
         <v>0.5</v>
       </c>
-      <c r="N427" s="63">
+      <c r="N427" s="73">
         <v>150</v>
       </c>
       <c r="O427" s="28">
@@ -19762,19 +17457,19 @@
       <c r="C428" s="28">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D428" s="63">
+      <c r="D428" s="73">
         <v>150</v>
       </c>
       <c r="E428" s="28">
         <v>0.60416666666666663</v>
       </c>
-      <c r="F428" s="63">
+      <c r="F428" s="73">
         <v>150</v>
       </c>
       <c r="G428" s="28">
         <v>0.13541666666666666</v>
       </c>
-      <c r="H428" s="63">
+      <c r="H428" s="73">
         <v>150</v>
       </c>
       <c r="I428" s="28">
@@ -19792,26 +17487,26 @@
       <c r="M428" s="36">
         <v>0.65625</v>
       </c>
-      <c r="N428" s="63">
+      <c r="N428" s="73">
         <v>180</v>
       </c>
       <c r="O428" s="28">
         <v>0.58333333333333337</v>
       </c>
       <c r="P428" s="66"/>
-      <c r="Q428" s="71" t="s">
+      <c r="Q428" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R428" s="71"/>
+      <c r="R428" s="76"/>
     </row>
     <row r="429" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B429" s="63">
+      <c r="B429" s="73">
         <v>150</v>
       </c>
       <c r="C429" s="28">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D429" s="63">
+      <c r="D429" s="73">
         <v>150</v>
       </c>
       <c r="E429" s="28">
@@ -19823,19 +17518,19 @@
       <c r="G429" s="28">
         <v>0.88541666666666663</v>
       </c>
-      <c r="H429" s="63">
+      <c r="H429" s="73">
         <v>180</v>
       </c>
       <c r="I429" s="28">
         <v>0.30208333333333331</v>
       </c>
-      <c r="J429" s="63">
+      <c r="J429" s="73">
         <v>210</v>
       </c>
       <c r="K429" s="32">
         <v>0.77083333333333337</v>
       </c>
-      <c r="L429" s="63">
+      <c r="L429" s="73">
         <v>120</v>
       </c>
       <c r="M429" s="36">
@@ -19848,10 +17543,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="P429" s="66"/>
-      <c r="Q429" s="72" t="s">
+      <c r="Q429" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R429" s="72"/>
+      <c r="R429" s="77"/>
     </row>
     <row r="430" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B430" s="47">
@@ -19885,10 +17580,10 @@
       <c r="N430" s="14"/>
       <c r="O430" s="28"/>
       <c r="P430" s="66"/>
-      <c r="Q430" s="77" t="s">
+      <c r="Q430" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R430" s="77"/>
+      <c r="R430" s="78"/>
     </row>
     <row r="431" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B431" s="14"/>
@@ -20175,34 +17870,34 @@
     </row>
     <row r="443" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="444" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B444" s="73">
+      <c r="B444" s="74">
         <v>46014</v>
       </c>
-      <c r="C444" s="74"/>
-      <c r="D444" s="73">
+      <c r="C444" s="75"/>
+      <c r="D444" s="74">
         <v>46015</v>
       </c>
-      <c r="E444" s="74"/>
-      <c r="F444" s="73">
+      <c r="E444" s="75"/>
+      <c r="F444" s="74">
         <v>46016</v>
       </c>
-      <c r="G444" s="74"/>
-      <c r="H444" s="73">
+      <c r="G444" s="75"/>
+      <c r="H444" s="74">
         <v>46017</v>
       </c>
-      <c r="I444" s="74"/>
-      <c r="J444" s="73">
+      <c r="I444" s="75"/>
+      <c r="J444" s="74">
         <v>46018</v>
       </c>
-      <c r="K444" s="74"/>
-      <c r="L444" s="73">
+      <c r="K444" s="75"/>
+      <c r="L444" s="74">
         <v>46019</v>
       </c>
-      <c r="M444" s="74"/>
-      <c r="N444" s="73">
+      <c r="M444" s="75"/>
+      <c r="N444" s="74">
         <v>46020</v>
       </c>
-      <c r="O444" s="74"/>
+      <c r="O444" s="75"/>
       <c r="P444" s="66"/>
       <c r="Q444" s="64"/>
       <c r="R444" s="64"/>
@@ -20255,7 +17950,7 @@
       <c r="R445" s="64"/>
     </row>
     <row r="446" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B446" s="63">
+      <c r="B446" s="73">
         <v>150</v>
       </c>
       <c r="C446" s="28">
@@ -20326,13 +18021,13 @@
       <c r="I447" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="J447" s="63">
+      <c r="J447" s="73">
         <v>150</v>
       </c>
       <c r="K447" s="28">
         <v>0.375</v>
       </c>
-      <c r="L447" s="63">
+      <c r="L447" s="73">
         <v>150</v>
       </c>
       <c r="M447" s="28">
@@ -20349,7 +18044,7 @@
       <c r="R447" s="64"/>
     </row>
     <row r="448" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B448" s="63">
+      <c r="B448" s="73">
         <v>150</v>
       </c>
       <c r="C448" s="28">
@@ -20385,7 +18080,7 @@
       <c r="M448" s="28">
         <v>0.38541666666666669</v>
       </c>
-      <c r="N448" s="63">
+      <c r="N448" s="73">
         <v>120</v>
       </c>
       <c r="O448" s="28">
@@ -20402,19 +18097,19 @@
       <c r="C449" s="28">
         <v>0.5625</v>
       </c>
-      <c r="D449" s="63">
+      <c r="D449" s="73">
         <v>180</v>
       </c>
       <c r="E449" s="28">
         <v>0.5625</v>
       </c>
-      <c r="F449" s="63">
+      <c r="F449" s="73">
         <v>210</v>
       </c>
       <c r="G449" s="28">
         <v>0.8125</v>
       </c>
-      <c r="H449" s="63">
+      <c r="H449" s="73">
         <v>210</v>
       </c>
       <c r="I449" s="28">
@@ -20432,26 +18127,26 @@
       <c r="M449" s="36">
         <v>0.52083333333333337</v>
       </c>
-      <c r="N449" s="63">
+      <c r="N449" s="73">
         <v>150</v>
       </c>
       <c r="O449" s="28">
         <v>0.5625</v>
       </c>
       <c r="P449" s="66"/>
-      <c r="Q449" s="71" t="s">
+      <c r="Q449" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R449" s="71"/>
+      <c r="R449" s="76"/>
     </row>
     <row r="450" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B450" s="63">
+      <c r="B450" s="73">
         <v>160</v>
       </c>
       <c r="C450" s="28">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D450" s="63">
+      <c r="D450" s="73">
         <v>180</v>
       </c>
       <c r="E450" s="28">
@@ -20463,19 +18158,19 @@
       <c r="G450" s="28">
         <v>0.98958333333333337</v>
       </c>
-      <c r="H450" s="63">
+      <c r="H450" s="73">
         <v>180</v>
       </c>
       <c r="I450" s="28">
         <v>0.82291666666666663</v>
       </c>
-      <c r="J450" s="63">
+      <c r="J450" s="73">
         <v>180</v>
       </c>
       <c r="K450" s="32">
         <v>0.95833333333333337</v>
       </c>
-      <c r="L450" s="63">
+      <c r="L450" s="73">
         <v>210</v>
       </c>
       <c r="M450" s="36">
@@ -20488,10 +18183,10 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="P450" s="66"/>
-      <c r="Q450" s="72" t="s">
+      <c r="Q450" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R450" s="72"/>
+      <c r="R450" s="77"/>
     </row>
     <row r="451" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B451" s="47">
@@ -20529,10 +18224,10 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="P451" s="66"/>
-      <c r="Q451" s="77" t="s">
+      <c r="Q451" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R451" s="77"/>
+      <c r="R451" s="78"/>
     </row>
     <row r="452" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B452" s="14"/>
@@ -20823,34 +18518,34 @@
     </row>
     <row r="464" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="465" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B465" s="73">
+      <c r="B465" s="74">
         <v>46021</v>
       </c>
-      <c r="C465" s="74"/>
-      <c r="D465" s="73">
+      <c r="C465" s="75"/>
+      <c r="D465" s="74">
         <v>46022</v>
       </c>
-      <c r="E465" s="74"/>
-      <c r="F465" s="73">
+      <c r="E465" s="75"/>
+      <c r="F465" s="74">
         <v>46023</v>
       </c>
-      <c r="G465" s="74"/>
-      <c r="H465" s="73">
+      <c r="G465" s="75"/>
+      <c r="H465" s="74">
         <v>46024</v>
       </c>
-      <c r="I465" s="74"/>
-      <c r="J465" s="73">
+      <c r="I465" s="75"/>
+      <c r="J465" s="74">
         <v>46025</v>
       </c>
-      <c r="K465" s="74"/>
-      <c r="L465" s="73">
+      <c r="K465" s="75"/>
+      <c r="L465" s="74">
         <v>46026</v>
       </c>
-      <c r="M465" s="74"/>
-      <c r="N465" s="73">
+      <c r="M465" s="75"/>
+      <c r="N465" s="74">
         <v>46027</v>
       </c>
-      <c r="O465" s="74"/>
+      <c r="O465" s="75"/>
       <c r="P465" s="66"/>
       <c r="Q465" s="64"/>
       <c r="R465" s="64"/>
@@ -20903,7 +18598,7 @@
       <c r="R466" s="64"/>
     </row>
     <row r="467" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B467" s="63">
+      <c r="B467" s="73">
         <v>150</v>
       </c>
       <c r="C467" s="28">
@@ -20997,7 +18692,7 @@
       <c r="R468" s="64"/>
     </row>
     <row r="469" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B469" s="63">
+      <c r="B469" s="73">
         <v>180</v>
       </c>
       <c r="C469" s="28">
@@ -21050,7 +18745,7 @@
       <c r="C470" s="28">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D470" s="63">
+      <c r="D470" s="73">
         <v>150</v>
       </c>
       <c r="E470" s="28">
@@ -21087,19 +18782,19 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="P470" s="66"/>
-      <c r="Q470" s="71" t="s">
+      <c r="Q470" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R470" s="71"/>
+      <c r="R470" s="76"/>
     </row>
     <row r="471" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B471" s="63">
+      <c r="B471" s="73">
         <v>150</v>
       </c>
       <c r="C471" s="28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D471" s="63">
+      <c r="D471" s="73">
         <v>150</v>
       </c>
       <c r="E471" s="28">
@@ -21136,10 +18831,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="P471" s="66"/>
-      <c r="Q471" s="72" t="s">
+      <c r="Q471" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="R471" s="72"/>
+      <c r="R471" s="77"/>
     </row>
     <row r="472" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B472" s="47">
@@ -21185,10 +18880,10 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="P472" s="66"/>
-      <c r="Q472" s="77" t="s">
+      <c r="Q472" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="R472" s="77"/>
+      <c r="R472" s="78"/>
     </row>
     <row r="473" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B473" s="14"/>
@@ -21491,34 +19186,34 @@
     </row>
     <row r="485" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="486" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B486" s="73">
+      <c r="B486" s="74">
         <v>46028</v>
       </c>
-      <c r="C486" s="74"/>
-      <c r="D486" s="73">
+      <c r="C486" s="75"/>
+      <c r="D486" s="74">
         <v>46029</v>
       </c>
-      <c r="E486" s="74"/>
-      <c r="F486" s="73">
+      <c r="E486" s="75"/>
+      <c r="F486" s="74">
         <v>46030</v>
       </c>
-      <c r="G486" s="74"/>
-      <c r="H486" s="73">
+      <c r="G486" s="75"/>
+      <c r="H486" s="74">
         <v>46031</v>
       </c>
-      <c r="I486" s="74"/>
-      <c r="J486" s="73">
+      <c r="I486" s="75"/>
+      <c r="J486" s="74">
         <v>46032</v>
       </c>
-      <c r="K486" s="74"/>
-      <c r="L486" s="73">
+      <c r="K486" s="75"/>
+      <c r="L486" s="74">
         <v>46033</v>
       </c>
-      <c r="M486" s="74"/>
-      <c r="N486" s="73">
+      <c r="M486" s="75"/>
+      <c r="N486" s="74">
         <v>46034</v>
       </c>
-      <c r="O486" s="74"/>
+      <c r="O486" s="75"/>
       <c r="P486" s="66"/>
       <c r="Q486" s="64"/>
       <c r="R486" s="64"/>
@@ -21755,10 +19450,10 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="P491" s="66"/>
-      <c r="Q491" s="71" t="s">
+      <c r="Q491" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R491" s="71"/>
+      <c r="R491" s="76"/>
     </row>
     <row r="492" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B492" s="47">
@@ -22159,34 +19854,34 @@
     </row>
     <row r="506" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="507" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B507" s="73">
+      <c r="B507" s="74">
         <v>46035</v>
       </c>
-      <c r="C507" s="74"/>
-      <c r="D507" s="73">
+      <c r="C507" s="75"/>
+      <c r="D507" s="74">
         <v>46036</v>
       </c>
-      <c r="E507" s="74"/>
-      <c r="F507" s="73">
+      <c r="E507" s="75"/>
+      <c r="F507" s="74">
         <v>46037</v>
       </c>
-      <c r="G507" s="74"/>
-      <c r="H507" s="73">
+      <c r="G507" s="75"/>
+      <c r="H507" s="74">
         <v>46038</v>
       </c>
-      <c r="I507" s="74"/>
-      <c r="J507" s="73">
+      <c r="I507" s="75"/>
+      <c r="J507" s="74">
         <v>46039</v>
       </c>
-      <c r="K507" s="74"/>
-      <c r="L507" s="73">
+      <c r="K507" s="75"/>
+      <c r="L507" s="74">
         <v>46040</v>
       </c>
-      <c r="M507" s="74"/>
-      <c r="N507" s="73">
+      <c r="M507" s="75"/>
+      <c r="N507" s="74">
         <v>46041</v>
       </c>
-      <c r="O507" s="74"/>
+      <c r="O507" s="75"/>
       <c r="P507" s="66"/>
       <c r="Q507" s="64"/>
       <c r="R507" s="64"/>
@@ -22275,8 +19970,12 @@
       <c r="M509" s="28">
         <v>0.13541666666666666</v>
       </c>
-      <c r="N509" s="29"/>
-      <c r="O509" s="28"/>
+      <c r="N509" s="29">
+        <v>90</v>
+      </c>
+      <c r="O509" s="28">
+        <v>6.9444444444444448E-2</v>
+      </c>
       <c r="P509" s="66"/>
       <c r="Q509" s="64"/>
       <c r="R509" s="64"/>
@@ -22318,8 +20017,12 @@
       <c r="M510" s="28">
         <v>0.29166666666666669</v>
       </c>
-      <c r="N510" s="29"/>
-      <c r="O510" s="28"/>
+      <c r="N510" s="29">
+        <v>120</v>
+      </c>
+      <c r="O510" s="28">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="P510" s="66"/>
       <c r="Q510" s="64"/>
       <c r="R510" s="64"/>
@@ -22361,8 +20064,12 @@
       <c r="M511" s="28">
         <v>0.51041666666666663</v>
       </c>
-      <c r="N511" s="29"/>
-      <c r="O511" s="28"/>
+      <c r="N511" s="29">
+        <v>120</v>
+      </c>
+      <c r="O511" s="28">
+        <v>0.34722222222222221</v>
+      </c>
       <c r="P511" s="66"/>
       <c r="Q511" s="64"/>
       <c r="R511" s="64"/>
@@ -22404,13 +20111,17 @@
       <c r="M512" s="36">
         <v>0.70833333333333337</v>
       </c>
-      <c r="N512" s="29"/>
-      <c r="O512" s="28"/>
+      <c r="N512" s="29">
+        <v>180</v>
+      </c>
+      <c r="O512" s="28">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="P512" s="66"/>
-      <c r="Q512" s="71" t="s">
+      <c r="Q512" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="R512" s="71"/>
+      <c r="R512" s="76"/>
     </row>
     <row r="513" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B513" s="47">
@@ -22449,8 +20160,12 @@
       <c r="M513" s="36">
         <v>0.89583333333333337</v>
       </c>
-      <c r="N513" s="29"/>
-      <c r="O513" s="28"/>
+      <c r="N513" s="29">
+        <v>180</v>
+      </c>
+      <c r="O513" s="28">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="P513" s="66"/>
       <c r="Q513" s="64"/>
       <c r="R513" s="64"/>
@@ -22484,8 +20199,12 @@
       <c r="K514" s="32"/>
       <c r="L514" s="14"/>
       <c r="M514" s="36"/>
-      <c r="N514" s="29"/>
-      <c r="O514" s="28"/>
+      <c r="N514" s="29">
+        <v>180</v>
+      </c>
+      <c r="O514" s="28">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="P514" s="66"/>
       <c r="Q514" s="64"/>
       <c r="R514" s="64"/>
@@ -22511,7 +20230,7 @@
       <c r="K515" s="32"/>
       <c r="L515" s="14"/>
       <c r="M515" s="36"/>
-      <c r="N515" s="29"/>
+      <c r="N515" s="14"/>
       <c r="O515" s="28"/>
       <c r="P515" s="66"/>
       <c r="Q515" s="64"/>
@@ -22771,18 +20490,678 @@
       <c r="M526" s="26"/>
       <c r="N526" s="25">
         <f>SUM(N509:N518)+N523</f>
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="O526" s="26"/>
       <c r="P526" s="67">
         <f>SUM(B526:O526)/7</f>
-        <v>727.14285714285711</v>
+        <v>851.42857142857144</v>
       </c>
       <c r="Q526" s="64"/>
       <c r="R526" s="64"/>
     </row>
+    <row r="527" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="528" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B528" s="74">
+        <v>46042</v>
+      </c>
+      <c r="C528" s="75"/>
+      <c r="D528" s="74">
+        <v>46043</v>
+      </c>
+      <c r="E528" s="75"/>
+      <c r="F528" s="74">
+        <v>46044</v>
+      </c>
+      <c r="G528" s="75"/>
+      <c r="H528" s="74">
+        <v>46045</v>
+      </c>
+      <c r="I528" s="75"/>
+      <c r="J528" s="74">
+        <v>46046</v>
+      </c>
+      <c r="K528" s="75"/>
+      <c r="L528" s="74">
+        <v>46047</v>
+      </c>
+      <c r="M528" s="75"/>
+      <c r="N528" s="74">
+        <v>46048</v>
+      </c>
+      <c r="O528" s="75"/>
+      <c r="P528" s="66"/>
+      <c r="Q528" s="64"/>
+      <c r="R528" s="64"/>
+    </row>
+    <row r="529" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O529" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P529" s="66"/>
+      <c r="Q529" s="64"/>
+      <c r="R529" s="64"/>
+    </row>
+    <row r="530" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B530" s="47">
+        <v>130</v>
+      </c>
+      <c r="C530" s="28">
+        <v>0.125</v>
+      </c>
+      <c r="D530" s="47">
+        <v>150</v>
+      </c>
+      <c r="E530" s="28">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F530" s="29">
+        <v>150</v>
+      </c>
+      <c r="G530" s="28">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="H530" s="29">
+        <v>150</v>
+      </c>
+      <c r="I530" s="28">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="J530" s="29">
+        <v>160</v>
+      </c>
+      <c r="K530" s="28">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="L530" s="47">
+        <v>150</v>
+      </c>
+      <c r="M530" s="28">
+        <v>0.1875</v>
+      </c>
+      <c r="N530" s="29">
+        <v>150</v>
+      </c>
+      <c r="O530" s="28">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="P530" s="66"/>
+      <c r="Q530" s="64"/>
+      <c r="R530" s="64"/>
+    </row>
+    <row r="531" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B531" s="47">
+        <v>150</v>
+      </c>
+      <c r="C531" s="28">
+        <v>0.28125</v>
+      </c>
+      <c r="D531" s="47">
+        <v>60</v>
+      </c>
+      <c r="E531" s="28">
+        <v>0.3125</v>
+      </c>
+      <c r="F531" s="29">
+        <v>150</v>
+      </c>
+      <c r="G531" s="28">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="H531" s="29">
+        <v>140</v>
+      </c>
+      <c r="I531" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="J531" s="29">
+        <v>150</v>
+      </c>
+      <c r="K531" s="28">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="L531" s="47">
+        <v>100</v>
+      </c>
+      <c r="M531" s="28">
+        <v>0.34375</v>
+      </c>
+      <c r="N531" s="29">
+        <v>150</v>
+      </c>
+      <c r="O531" s="28">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P531" s="66"/>
+      <c r="Q531" s="64"/>
+      <c r="R531" s="64"/>
+    </row>
+    <row r="532" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B532" s="47">
+        <v>120</v>
+      </c>
+      <c r="C532" s="28">
+        <v>0.40625</v>
+      </c>
+      <c r="D532" s="47">
+        <v>150</v>
+      </c>
+      <c r="E532" s="28">
+        <v>0.40625</v>
+      </c>
+      <c r="F532" s="29">
+        <v>180</v>
+      </c>
+      <c r="G532" s="28">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H532" s="29">
+        <v>100</v>
+      </c>
+      <c r="I532" s="28">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J532" s="29">
+        <v>130</v>
+      </c>
+      <c r="K532" s="28">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="L532" s="47">
+        <v>120</v>
+      </c>
+      <c r="M532" s="28">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="N532" s="29">
+        <v>120</v>
+      </c>
+      <c r="O532" s="28">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="P532" s="66"/>
+      <c r="Q532" s="64"/>
+      <c r="R532" s="64"/>
+    </row>
+    <row r="533" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B533" s="47">
+        <v>180</v>
+      </c>
+      <c r="C533" s="28">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D533" s="47">
+        <v>180</v>
+      </c>
+      <c r="E533" s="28">
+        <v>0.5625</v>
+      </c>
+      <c r="F533" s="29">
+        <v>150</v>
+      </c>
+      <c r="G533" s="28">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="H533" s="29">
+        <v>150</v>
+      </c>
+      <c r="I533" s="28">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="J533" s="29">
+        <v>210</v>
+      </c>
+      <c r="K533" s="32">
+        <v>0.65625</v>
+      </c>
+      <c r="L533" s="47">
+        <v>120</v>
+      </c>
+      <c r="M533" s="36">
+        <v>0.59375</v>
+      </c>
+      <c r="N533" s="29">
+        <v>160</v>
+      </c>
+      <c r="O533" s="28">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="P533" s="66"/>
+      <c r="Q533" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="R533" s="76"/>
+    </row>
+    <row r="534" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B534" s="47">
+        <v>150</v>
+      </c>
+      <c r="C534" s="28">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D534" s="47">
+        <v>30</v>
+      </c>
+      <c r="E534" s="28">
+        <v>0.6875</v>
+      </c>
+      <c r="F534" s="29">
+        <v>150</v>
+      </c>
+      <c r="G534" s="28">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H534" s="29">
+        <v>50</v>
+      </c>
+      <c r="I534" s="28">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J534" s="29">
+        <v>220</v>
+      </c>
+      <c r="K534" s="32">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="L534" s="47">
+        <v>150</v>
+      </c>
+      <c r="M534" s="36">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="N534" s="29">
+        <v>90</v>
+      </c>
+      <c r="O534" s="28">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="P534" s="66"/>
+      <c r="Q534" s="64"/>
+      <c r="R534" s="64"/>
+    </row>
+    <row r="535" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B535" s="47">
+        <v>150</v>
+      </c>
+      <c r="C535" s="28">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D535" s="47">
+        <v>30</v>
+      </c>
+      <c r="E535" s="28">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F535" s="40"/>
+      <c r="G535" s="28"/>
+      <c r="H535" s="29">
+        <v>180</v>
+      </c>
+      <c r="I535" s="28">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="J535" s="29">
+        <v>150</v>
+      </c>
+      <c r="K535" s="32">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="L535" s="47">
+        <v>150</v>
+      </c>
+      <c r="M535" s="36">
+        <v>0.9375</v>
+      </c>
+      <c r="N535" s="29">
+        <v>60</v>
+      </c>
+      <c r="O535" s="28">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="P535" s="66"/>
+      <c r="Q535" s="64"/>
+      <c r="R535" s="64"/>
+    </row>
+    <row r="536" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B536" s="14"/>
+      <c r="C536" s="28"/>
+      <c r="D536" s="47">
+        <v>210</v>
+      </c>
+      <c r="E536" s="28">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="F536" s="40"/>
+      <c r="G536" s="28"/>
+      <c r="H536" s="40"/>
+      <c r="I536" s="28"/>
+      <c r="J536" s="14"/>
+      <c r="K536" s="32"/>
+      <c r="L536" s="14"/>
+      <c r="M536" s="36"/>
+      <c r="N536" s="29">
+        <v>150</v>
+      </c>
+      <c r="O536" s="28">
+        <v>0.8125</v>
+      </c>
+      <c r="P536" s="66"/>
+      <c r="Q536" s="64"/>
+      <c r="R536" s="64"/>
+    </row>
+    <row r="537" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B537" s="14"/>
+      <c r="C537" s="28"/>
+      <c r="D537" s="47">
+        <v>100</v>
+      </c>
+      <c r="E537" s="28">
+        <v>0.96875</v>
+      </c>
+      <c r="F537" s="40"/>
+      <c r="G537" s="28"/>
+      <c r="H537" s="40"/>
+      <c r="I537" s="28"/>
+      <c r="J537" s="14"/>
+      <c r="K537" s="28"/>
+      <c r="L537" s="14"/>
+      <c r="M537" s="36"/>
+      <c r="N537" s="29">
+        <v>150</v>
+      </c>
+      <c r="O537" s="28">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="P537" s="66"/>
+      <c r="Q537" s="64"/>
+      <c r="R537" s="64"/>
+    </row>
+    <row r="538" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B538" s="14"/>
+      <c r="C538" s="28"/>
+      <c r="D538" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E538" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F538" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="G538" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H538" s="40"/>
+      <c r="I538" s="28"/>
+      <c r="J538" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="K538" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="L538" s="14"/>
+      <c r="N538" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="O538" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="P538" s="66"/>
+      <c r="Q538" s="64"/>
+      <c r="R538" s="64"/>
+    </row>
+    <row r="539" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B539" s="14"/>
+      <c r="C539" s="28"/>
+      <c r="D539" s="14"/>
+      <c r="E539" s="28"/>
+      <c r="F539" s="40"/>
+      <c r="G539" s="28"/>
+      <c r="H539" s="40"/>
+      <c r="I539" s="28"/>
+      <c r="J539" s="14"/>
+      <c r="K539" s="28"/>
+      <c r="L539" s="14"/>
+      <c r="M539" s="28"/>
+      <c r="N539" s="14"/>
+      <c r="O539" s="28"/>
+      <c r="P539" s="66"/>
+      <c r="Q539" s="64"/>
+      <c r="R539" s="64"/>
+    </row>
+    <row r="540" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B540" s="14"/>
+      <c r="C540" s="52"/>
+      <c r="D540" s="14"/>
+      <c r="E540" s="46"/>
+      <c r="F540" s="40"/>
+      <c r="G540" s="28"/>
+      <c r="H540" s="40"/>
+      <c r="I540" s="28"/>
+      <c r="J540" s="14"/>
+      <c r="K540" s="46"/>
+      <c r="L540" s="14"/>
+      <c r="M540" s="46"/>
+      <c r="N540" s="14"/>
+      <c r="O540" s="46"/>
+      <c r="P540" s="66"/>
+      <c r="Q540" s="64"/>
+      <c r="R540" s="64"/>
+    </row>
+    <row r="541" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B541" s="14"/>
+      <c r="C541" s="22"/>
+      <c r="D541" s="14"/>
+      <c r="E541" s="35"/>
+      <c r="F541" s="14"/>
+      <c r="G541" s="28"/>
+      <c r="H541" s="14"/>
+      <c r="I541" s="28"/>
+      <c r="J541" s="14"/>
+      <c r="K541" s="28"/>
+      <c r="L541" s="14"/>
+      <c r="M541" s="35"/>
+      <c r="N541" s="14"/>
+      <c r="O541" s="28"/>
+      <c r="P541" s="66"/>
+      <c r="Q541" s="64"/>
+      <c r="R541" s="64"/>
+    </row>
+    <row r="542" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B542" s="14"/>
+      <c r="C542" s="22"/>
+      <c r="D542" s="14"/>
+      <c r="E542" s="35"/>
+      <c r="F542" s="14"/>
+      <c r="G542" s="28"/>
+      <c r="H542" s="14"/>
+      <c r="I542" s="28"/>
+      <c r="J542" s="14"/>
+      <c r="K542" s="28"/>
+      <c r="L542" s="14"/>
+      <c r="M542" s="35"/>
+      <c r="N542" s="14"/>
+      <c r="O542" s="20"/>
+      <c r="P542" s="66"/>
+      <c r="Q542" s="64"/>
+      <c r="R542" s="64"/>
+    </row>
+    <row r="543" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B543" s="14"/>
+      <c r="C543" s="20"/>
+      <c r="D543" s="14"/>
+      <c r="E543" s="20"/>
+      <c r="F543" s="14"/>
+      <c r="G543" s="20"/>
+      <c r="H543" s="14"/>
+      <c r="I543" s="20"/>
+      <c r="J543" s="14"/>
+      <c r="K543" s="20"/>
+      <c r="L543" s="14"/>
+      <c r="M543" s="20"/>
+      <c r="N543" s="14"/>
+      <c r="O543" s="20"/>
+      <c r="P543" s="66"/>
+      <c r="Q543" s="64"/>
+      <c r="R543" s="64"/>
+    </row>
+    <row r="544" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B544" s="14"/>
+      <c r="C544" s="12"/>
+      <c r="D544" s="14"/>
+      <c r="E544" s="12"/>
+      <c r="F544" s="14"/>
+      <c r="G544" s="12"/>
+      <c r="H544" s="14"/>
+      <c r="I544" s="12"/>
+      <c r="J544" s="14"/>
+      <c r="K544" s="12"/>
+      <c r="L544" s="14"/>
+      <c r="M544" s="12"/>
+      <c r="N544" s="14"/>
+      <c r="O544" s="12"/>
+      <c r="P544" s="66"/>
+      <c r="Q544" s="64"/>
+      <c r="R544" s="64"/>
+    </row>
+    <row r="545" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B545" s="19"/>
+      <c r="C545" s="12"/>
+      <c r="D545" s="19"/>
+      <c r="E545" s="12"/>
+      <c r="F545" s="19"/>
+      <c r="G545" s="12"/>
+      <c r="H545" s="19"/>
+      <c r="I545" s="12"/>
+      <c r="J545" s="19"/>
+      <c r="K545" s="12"/>
+      <c r="L545" s="19"/>
+      <c r="M545" s="12"/>
+      <c r="N545" s="19"/>
+      <c r="O545" s="12"/>
+      <c r="P545" s="66"/>
+      <c r="Q545" s="64"/>
+      <c r="R545" s="64"/>
+    </row>
+    <row r="546" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C546" s="12"/>
+      <c r="D546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E546" s="12"/>
+      <c r="F546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G546" s="12"/>
+      <c r="H546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I546" s="12"/>
+      <c r="J546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K546" s="12"/>
+      <c r="L546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M546" s="12"/>
+      <c r="N546" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O546" s="12"/>
+      <c r="P546" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q546" s="64"/>
+      <c r="R546" s="64"/>
+    </row>
+    <row r="547" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="25">
+        <f>SUM(B530:B538)+B544</f>
+        <v>880</v>
+      </c>
+      <c r="C547" s="26"/>
+      <c r="D547" s="25">
+        <f>SUM(D530:D539)+D544</f>
+        <v>910</v>
+      </c>
+      <c r="E547" s="26"/>
+      <c r="F547" s="25">
+        <f>SUM(F530:F539)+F544</f>
+        <v>780</v>
+      </c>
+      <c r="G547" s="26"/>
+      <c r="H547" s="25">
+        <f>SUM(H530:H537)+H544</f>
+        <v>770</v>
+      </c>
+      <c r="I547" s="26"/>
+      <c r="J547" s="25">
+        <f>SUM(J530:J537)+J544</f>
+        <v>1020</v>
+      </c>
+      <c r="K547" s="26"/>
+      <c r="L547" s="25">
+        <f>SUM(L530:L539)+L544</f>
+        <v>790</v>
+      </c>
+      <c r="M547" s="26"/>
+      <c r="N547" s="25">
+        <f>SUM(N530:N539)+N544</f>
+        <v>1030</v>
+      </c>
+      <c r="O547" s="26"/>
+      <c r="P547" s="67">
+        <f>SUM(B547:O547)/7</f>
+        <v>882.85714285714289</v>
+      </c>
+      <c r="Q547" s="64"/>
+      <c r="R547" s="64"/>
+    </row>
   </sheetData>
-  <mergeCells count="259">
+  <mergeCells count="267">
     <mergeCell ref="Q388:R388"/>
     <mergeCell ref="Q430:R430"/>
     <mergeCell ref="Q451:R451"/>
@@ -22803,6 +21182,20 @@
     <mergeCell ref="N423:O423"/>
     <mergeCell ref="Q428:R428"/>
     <mergeCell ref="Q429:R429"/>
+    <mergeCell ref="B402:C402"/>
+    <mergeCell ref="D402:E402"/>
+    <mergeCell ref="F402:G402"/>
+    <mergeCell ref="H402:I402"/>
+    <mergeCell ref="J318:K318"/>
+    <mergeCell ref="L318:M318"/>
+    <mergeCell ref="N318:O318"/>
+    <mergeCell ref="Q323:R323"/>
+    <mergeCell ref="Q324:R324"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="Q241:R241"/>
+    <mergeCell ref="Q242:T242"/>
+    <mergeCell ref="B318:C318"/>
+    <mergeCell ref="D318:E318"/>
     <mergeCell ref="Q283:R283"/>
     <mergeCell ref="Q284:T284"/>
     <mergeCell ref="Q285:R285"/>
@@ -22817,16 +21210,6 @@
     <mergeCell ref="N297:O297"/>
     <mergeCell ref="Q302:R302"/>
     <mergeCell ref="Q303:R303"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="H318:I318"/>
-    <mergeCell ref="J318:K318"/>
-    <mergeCell ref="L318:M318"/>
-    <mergeCell ref="N318:O318"/>
-    <mergeCell ref="Q323:R323"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:T242"/>
     <mergeCell ref="Q219:R219"/>
     <mergeCell ref="Q220:R220"/>
     <mergeCell ref="Q221:T221"/>
@@ -22958,8 +21341,6 @@
     <mergeCell ref="Q93:R93"/>
     <mergeCell ref="Q94:R94"/>
     <mergeCell ref="Q95:T95"/>
-    <mergeCell ref="B318:C318"/>
-    <mergeCell ref="D318:E318"/>
     <mergeCell ref="Q366:R366"/>
     <mergeCell ref="Q262:R262"/>
     <mergeCell ref="Q263:T263"/>
@@ -22982,6 +21363,8 @@
     <mergeCell ref="N276:O276"/>
     <mergeCell ref="Q281:R281"/>
     <mergeCell ref="Q282:R282"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:I318"/>
     <mergeCell ref="Q387:R387"/>
     <mergeCell ref="Q365:R365"/>
     <mergeCell ref="B339:C339"/>
@@ -23006,10 +21389,6 @@
     <mergeCell ref="J360:K360"/>
     <mergeCell ref="L360:M360"/>
     <mergeCell ref="N360:O360"/>
-    <mergeCell ref="B402:C402"/>
-    <mergeCell ref="D402:E402"/>
-    <mergeCell ref="F402:G402"/>
-    <mergeCell ref="H402:I402"/>
     <mergeCell ref="J402:K402"/>
     <mergeCell ref="L402:M402"/>
     <mergeCell ref="N402:O402"/>
@@ -23024,7 +21403,6 @@
     <mergeCell ref="J465:K465"/>
     <mergeCell ref="L465:M465"/>
     <mergeCell ref="N465:O465"/>
-    <mergeCell ref="Q512:R512"/>
     <mergeCell ref="Q470:R470"/>
     <mergeCell ref="Q471:R471"/>
     <mergeCell ref="B507:C507"/>
@@ -23042,6 +21420,15 @@
     <mergeCell ref="L486:M486"/>
     <mergeCell ref="N486:O486"/>
     <mergeCell ref="Q491:R491"/>
+    <mergeCell ref="B528:C528"/>
+    <mergeCell ref="D528:E528"/>
+    <mergeCell ref="F528:G528"/>
+    <mergeCell ref="H528:I528"/>
+    <mergeCell ref="J528:K528"/>
+    <mergeCell ref="L528:M528"/>
+    <mergeCell ref="N528:O528"/>
+    <mergeCell ref="Q533:R533"/>
+    <mergeCell ref="Q512:R512"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
